--- a/data/trans_bre/P25A_N_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_N_R2-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,25</t>
+          <t>15,59</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,18</t>
+          <t>9,24</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,32</t>
+          <t>9,68</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,71</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>142,88%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>79,71%</t>
+          <t>26,36</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>56,94%</t>
+          <t>125,05%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>66,23%</t>
+          <t>58,38%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>66,35%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>208,72%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,73; 23,65</t>
+          <t>5,94; 25,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,84; 16,99</t>
+          <t>1,15; 16,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,45; 15,01</t>
+          <t>3,28; 16,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,71; 15,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>49,31; 314,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,19; 154,41</t>
+          <t>16,71; 37,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,47; 137,59</t>
+          <t>29,44; 331,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,0; 135,2</t>
+          <t>5,95; 144,82</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>17,96; 146,73</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>96,42; 472,15</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,24</t>
+          <t>6,94</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,19</t>
+          <t>5,12</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,96</t>
+          <t>7,94</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,85</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>157,01%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>83,82%</t>
+          <t>10,6</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>123,75%</t>
+          <t>88,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>90,07%</t>
+          <t>77,41%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>113,97%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>109,37%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,68; 13,37</t>
+          <t>2,04; 11,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,35; 8,31</t>
+          <t>1,33; 8,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,93; 11,33</t>
+          <t>4,55; 12,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,31; 15,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>70,43; 284,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,53; 167,5</t>
+          <t>5,56; 16,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>63,16; 215,35</t>
+          <t>17,72; 196,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>43,41; 159,6</t>
+          <t>10,22; 183,88</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>50,7; 223,83</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>45,29; 231,27</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,48</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-13,22%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>26,21%</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>40,72%</t>
+          <t>-11,09%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>157,03%</t>
+          <t>43,51%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>40,54%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>35,83%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 3,01</t>
+          <t>-5,94; 3,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 5,12</t>
+          <t>-0,85; 6,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 5,75</t>
+          <t>-0,81; 5,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,61; 10,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-45,71; 50,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-24,06; 104,41</t>
+          <t>-1,27; 8,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,19; 117,04</t>
+          <t>-48,88; 58,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,94; 453,15</t>
+          <t>-13,76; 135,49</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-11,82; 122,72</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-10,81; 119,62</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,89</t>
+          <t>9,18</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,05</t>
+          <t>8,1</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,73</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,44</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>100,78%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>74,62%</t>
+          <t>14,9</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>82,64%</t>
+          <t>130,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>84,53%</t>
+          <t>99,99%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>178,93%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,1; 11,0</t>
+          <t>4,2; 13,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,92; 8,58</t>
+          <t>3,0; 13,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,53; 9,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,68; 12,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>52,35; 162,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>41,29; 122,77</t>
+          <t>9,25; 21,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>45,68; 129,29</t>
+          <t>40,79; 251,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>44,84; 126,58</t>
+          <t>23,43; 230,86</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>79,01; 336,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7,24</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6,02</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6,94</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13,05</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>87,21%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>72,48%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>82,62%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>134,57%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4,34; 9,86</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3,7; 8,4</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4,61; 9,45</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>9,91; 16,09</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>43,79; 138,37</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>37,24; 116,93</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>47,85; 131,65</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>88,3; 191,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25A_N_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_N_R2-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>15,59</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>9,24</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>9,68</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>26,36</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>125,05%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>58,38%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>66,35%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>208,72%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>15.40873952130318</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>9.405954143683108</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>9.691028139666372</v>
+      </c>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="n">
+        <v>26.09067310103846</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>1.306631247364649</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.5964214299348746</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.6617795731220052</v>
+      </c>
+      <c r="L4" s="6" t="inlineStr"/>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="n">
+        <v>2.083369223393574</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>5,94; 25,0</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,15; 16,39</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>3,28; 16,62</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>16,71; 37,79</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>29,44; 331,36</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>5,95; 144,82</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>17,96; 146,73</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>96,42; 472,15</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>6.553914313457613</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>1.412013247820566</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>3.146314362759881</v>
+      </c>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="n">
+        <v>16.59524097263876</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.3417308482394756</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.07482618326879574</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.1646576810796482</v>
+      </c>
+      <c r="L5" s="6" t="inlineStr"/>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="n">
+        <v>0.9779259811425997</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>24.79188966053013</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>16.5192305300699</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>16.83679546564506</v>
+      </c>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="n">
+        <v>37.31898089671915</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>3.49718698674844</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.446651230926218</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.474106338702031</v>
+      </c>
+      <c r="L6" s="6" t="inlineStr"/>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="n">
+        <v>4.743527636325722</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>6,94</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,12</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>7,94</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>10,6</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>88,08%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>77,41%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>113,97%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>109,37%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>2,04; 11,94</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,33; 8,75</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>4,55; 12,16</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>5,56; 16,31</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>17,72; 196,08</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>10,22; 183,88</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>50,7; 223,83</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>45,29; 231,27</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>6.735433895556101</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>5.540106667443563</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>7.885985524507549</v>
+      </c>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="n">
+        <v>10.84042725861452</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.8981271126808477</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.8564944667671311</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>1.150239868263785</v>
+      </c>
+      <c r="L7" s="6" t="inlineStr"/>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="n">
+        <v>1.144052684865291</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,05</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,7</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,59</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>3,56</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-11,09%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>43,51%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>40,54%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>35,83%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>2.173339909193921</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>1.917367758434853</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>4.539210935533435</v>
+      </c>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="n">
+        <v>5.837072229945886</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.2046958356363411</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.1344715510028048</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.5118803605907315</v>
+      </c>
+      <c r="L8" s="6" t="inlineStr"/>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="n">
+        <v>0.4826738845381426</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-5,94; 3,88</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,85; 6,1</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,81; 5,79</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-1,27; 8,73</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-48,88; 58,83</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-13,76; 135,49</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-11,82; 122,72</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-10,81; 119,62</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>11.16799204051073</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>9.380597053255061</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>11.97158872728632</v>
+      </c>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="n">
+        <v>16.48247965933865</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.98932014791171</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.977167182225999</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>2.238785914664802</v>
+      </c>
+      <c r="L9" s="6" t="inlineStr"/>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="n">
+        <v>2.413833397205108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>9,18</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>8,1</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>14,9</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>130,73%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>99,99%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>178,93%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-1.405268006884731</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.58978020730497</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.274208702564658</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>3.788738931132597</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.1454505277650869</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.403445972813921</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.3476580700788112</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="n">
+        <v>0.393603207199117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>4,2; 13,22</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>3,0; 13,49</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>9,25; 21,11</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>40,79; 251,43</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>23,43; 230,86</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>79,01; 336,88</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.827340627345438</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.399251129737408</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.256911906955022</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-0.9478116656785524</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.5245439477754149</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.1702853238658396</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.1733284696462854</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="n">
+        <v>-0.08837096279236228</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.280955589240388</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.998594167621123</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>5.424894694733976</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>8.822253448706396</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.5402122467054865</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.330428438957157</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.107869492590836</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="n">
+        <v>1.251971013021024</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>7,24</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>6,02</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>6,94</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>13,05</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>87,21%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>72,48%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>82,62%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>134,57%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>4,34; 9,86</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>3,7; 8,4</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>4,61; 9,45</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>9,91; 16,09</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>43,79; 138,37</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>37,24; 116,93</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>47,85; 131,65</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>88,3; 191,42</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>5.610863489372231</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>5.689418564088353</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>6.864043319565422</v>
+      </c>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="n">
+        <v>12.42627478060484</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.6241989432771922</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.682264016446038</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.8170599484706851</v>
+      </c>
+      <c r="L13" s="6" t="inlineStr"/>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="n">
+        <v>1.229661614467377</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>1.839969975723136</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>3.072976073767368</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>4.551256311598332</v>
+      </c>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="n">
+        <v>8.811110470809671</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.1611474837378755</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.2889306794494237</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.4637436905474759</v>
+      </c>
+      <c r="L14" s="6" t="inlineStr"/>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="n">
+        <v>0.7110090939534468</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>8.861001155366054</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>8.454354924920573</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>9.417397253678567</v>
+      </c>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="n">
+        <v>16.33884370172474</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.212577147521045</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.214343408454732</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.269467888865954</v>
+      </c>
+      <c r="L15" s="6" t="inlineStr"/>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="n">
+        <v>1.863050909460964</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
